--- a/cleaned_wind_data.xlsx
+++ b/cleaned_wind_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,7 +532,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61886637426</t>
+          <t>/v1/utilizations/62028415827</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61886637426</v>
+        <v>62028415827</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3621176</v>
+        <v>327308</v>
       </c>
       <c r="K2" t="n">
-        <v>3621176</v>
+        <v>327308</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5902600288391113</v>
+        <v>0.05324647575616837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>45259.04166666666</v>
+        <v>45266.04166666666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61887368565</t>
+          <t>/v1/utilizations/62029146740</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61887368565</v>
+        <v>62029146740</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -628,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3969412</v>
+        <v>344042</v>
       </c>
       <c r="K3" t="n">
-        <v>3969412</v>
+        <v>344042</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6470152735710144</v>
+        <v>0.05596809834241867</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>45259.04166666666</v>
+        <v>45266.04166666666</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>45259.08333333334</v>
+        <v>45266.08333333334</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61888103304</t>
+          <t>/v1/utilizations/62029881253</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61888103304</v>
+        <v>62029881253</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4402746</v>
+        <v>338890</v>
       </c>
       <c r="K4" t="n">
-        <v>4402746</v>
+        <v>338890</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7176405191421509</v>
+        <v>0.05512930080294609</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45259.08333333334</v>
+        <v>45266.08333333334</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>45259.125</v>
+        <v>45266.125</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61888841869</t>
+          <t>/v1/utilizations/62030619592</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61888841869</v>
+        <v>62030619592</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4409114</v>
+        <v>570157</v>
       </c>
       <c r="K5" t="n">
-        <v>4409114</v>
+        <v>570157</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7186700105667114</v>
+        <v>0.09274987131357193</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>45259.125</v>
+        <v>45266.125</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45259.16666666666</v>
+        <v>45266.16666666666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61889584034</t>
+          <t>/v1/utilizations/62031361531</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61889584034</v>
+        <v>62031361531</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4143851</v>
+        <v>691553</v>
       </c>
       <c r="K6" t="n">
-        <v>4143851</v>
+        <v>691553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6754252314567566</v>
+        <v>0.1124967485666275</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45259.16666666666</v>
+        <v>45266.16666666666</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>45259.20833333334</v>
+        <v>45266.20833333334</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61890329799</t>
+          <t>/v1/utilizations/62032107070</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61890329799</v>
+        <v>62032107070</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -884,13 +884,13 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3650999</v>
+        <v>771473</v>
       </c>
       <c r="K7" t="n">
-        <v>3650999</v>
+        <v>771473</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5950862765312195</v>
+        <v>0.1254957467317581</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45259.20833333334</v>
+        <v>45266.20833333334</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>45259.25</v>
+        <v>45266.25</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61891079164</t>
+          <t>/v1/utilizations/62032856209</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61891079164</v>
+        <v>62032856209</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3339958</v>
+        <v>579328</v>
       </c>
       <c r="K8" t="n">
-        <v>3339958</v>
+        <v>579328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5443822741508484</v>
+        <v>0.09423842281103134</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>45259.25</v>
+        <v>45266.25</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45259.29166666666</v>
+        <v>45266.29166666666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61893270059</t>
+          <t>/v1/utilizations/62034931857</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61893270059</v>
+        <v>62034931857</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3108843</v>
+        <v>440977</v>
       </c>
       <c r="K9" t="n">
-        <v>3108843</v>
+        <v>440977</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5067064762115479</v>
+        <v>0.07173222303390503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>45259.29166666666</v>
+        <v>45266.29166666666</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>45259.33333333334</v>
+        <v>45266.33333333334</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61895101477</t>
+          <t>/v1/utilizations/62036172321</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61895101477</v>
+        <v>62036172321</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2251570</v>
+        <v>430203</v>
       </c>
       <c r="K10" t="n">
-        <v>2251570</v>
+        <v>430203</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3669764995574951</v>
+        <v>0.06997887790203094</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>45259.33333333334</v>
+        <v>45266.33333333334</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>45259.375</v>
+        <v>45266.375</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61895725706</t>
+          <t>/v1/utilizations/62036796396</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61895725706</v>
+        <v>62036796396</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1046144</v>
+        <v>355733</v>
       </c>
       <c r="K11" t="n">
-        <v>1046144</v>
+        <v>355733</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1705060005187988</v>
+        <v>0.05786457657814026</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45259.375</v>
+        <v>45266.375</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>45259.41666666666</v>
+        <v>45266.41666666666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61896489471</t>
+          <t>/v1/utilizations/62037491823</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61896489471</v>
+        <v>62037491823</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>546336</v>
+        <v>285710</v>
       </c>
       <c r="K12" t="n">
-        <v>546336</v>
+        <v>285710</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08904349803924561</v>
+        <v>0.04647382348775864</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>45259.41666666666</v>
+        <v>45266.41666666666</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>45259.45833333334</v>
+        <v>45266.45833333334</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61897256836</t>
+          <t>/v1/utilizations/62038258962</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61897256836</v>
+        <v>62038258962</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>459796</v>
+        <v>332690</v>
       </c>
       <c r="K13" t="n">
-        <v>459796</v>
+        <v>332690</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07493807375431061</v>
+        <v>0.05411500111222267</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45259.45833333334</v>
+        <v>45266.45833333334</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>45259.5</v>
+        <v>45266.5</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61898027801</t>
+          <t>/v1/utilizations/62039029701</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61898027801</v>
+        <v>62039029701</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>399390</v>
+        <v>450781</v>
       </c>
       <c r="K14" t="n">
-        <v>399390</v>
+        <v>450781</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0650923028588295</v>
+        <v>0.07332267612218857</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45259.5</v>
+        <v>45266.5</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>45259.54166666666</v>
+        <v>45266.54166666666</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61898802366</t>
+          <t>/v1/utilizations/62039804040</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61898802366</v>
+        <v>62039804040</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>355288</v>
+        <v>495964</v>
       </c>
       <c r="K15" t="n">
-        <v>355288</v>
+        <v>495964</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05790384858846664</v>
+        <v>0.08067110180854797</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>45259.54166666666</v>
+        <v>45266.54166666666</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>45259.58333333334</v>
+        <v>45266.58333333334</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61899580531</t>
+          <t>/v1/utilizations/62040581979</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61899580531</v>
+        <v>62040581979</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>255392</v>
+        <v>441275</v>
       </c>
       <c r="K16" t="n">
-        <v>255392</v>
+        <v>441275</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04162262380123138</v>
+        <v>0.07177482545375824</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>45259.58333333334</v>
+        <v>45266.58333333334</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>45259.625</v>
+        <v>45266.625</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61900362296</t>
+          <t>/v1/utilizations/62041363518</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>61900362296</v>
+        <v>62041363518</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>172663</v>
+        <v>296590</v>
       </c>
       <c r="K17" t="n">
-        <v>172663</v>
+        <v>296590</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02813947573304176</v>
+        <v>0.04824075102806091</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>45259.625</v>
+        <v>45266.625</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>45259.66666666666</v>
+        <v>45266.66666666666</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61901147661</t>
+          <t>/v1/utilizations/62042010273</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>61901147661</v>
+        <v>62042010273</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>144360</v>
+        <v>222353</v>
       </c>
       <c r="K18" t="n">
-        <v>144360</v>
+        <v>222353</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02352654933929443</v>
+        <v>0.03616559877991676</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>45259.66666666666</v>
+        <v>45266.66666666666</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>45259.70833333334</v>
+        <v>45266.70833333334</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61901867218</t>
+          <t>/v1/utilizations/62042729640</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61901867218</v>
+        <v>62042729640</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>157527</v>
+        <v>170287</v>
       </c>
       <c r="K19" t="n">
-        <v>157527</v>
+        <v>170287</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02567212469875813</v>
+        <v>0.0276967491954565</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>45259.70833333334</v>
+        <v>45266.70833333334</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>45259.75</v>
+        <v>45266.75</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61902590195</t>
+          <t>/v1/utilizations/62043452427</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>61902590195</v>
+        <v>62043452427</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>103228</v>
+        <v>132634</v>
       </c>
       <c r="K20" t="n">
-        <v>103228</v>
+        <v>132634</v>
       </c>
       <c r="L20" t="n">
-        <v>0.016822824254632</v>
+        <v>0.02157232537865639</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>45259.75</v>
+        <v>45266.75</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>45259.79166666666</v>
+        <v>45266.79166666666</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61903246824</t>
+          <t>/v1/utilizations/62044108902</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>61903246824</v>
+        <v>62044108902</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>51902</v>
+        <v>104801</v>
       </c>
       <c r="K21" t="n">
-        <v>51902</v>
+        <v>104801</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008458257652819157</v>
+        <v>0.01704519987106323</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>45259.79166666666</v>
+        <v>45266.79166666666</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>45259.83333333334</v>
+        <v>45266.83333333334</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61904046589</t>
+          <t>/v1/utilizations/62044908441</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>61904046589</v>
+        <v>62044908441</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1844,13 +1844,13 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>32569</v>
+        <v>106095</v>
       </c>
       <c r="K22" t="n">
-        <v>32569</v>
+        <v>106095</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005307567305862904</v>
+        <v>0.01725547574460506</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>45259.83333333334</v>
+        <v>45266.83333333334</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>45259.875</v>
+        <v>45266.875</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61904849954</t>
+          <t>/v1/utilizations/62045571396</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>61904849954</v>
+        <v>62045571396</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2694</v>
+        <v>71044</v>
       </c>
       <c r="K23" t="n">
-        <v>2694</v>
+        <v>71044</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00043902249308303</v>
+        <v>0.01155459973961115</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>45259.875</v>
+        <v>45266.875</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>45259.91666666666</v>
+        <v>45266.91666666666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61905656919</t>
+          <t>/v1/utilizations/62046237591</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>61905656919</v>
+        <v>62046237591</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>82031</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82031</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.01334134954959154</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>45259.91666666666</v>
+        <v>45266.91666666666</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>45259.95833333334</v>
+        <v>45266.95833333334</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61906467484</t>
+          <t>/v1/utilizations/62047047930</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>61906467484</v>
+        <v>62047047930</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>125282</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>125282</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.02037535049021244</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>45259.95833333334</v>
+        <v>45266.95833333334</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>45260</v>
+        <v>45267</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61907279873</t>
+          <t>/v1/utilizations/62047789461</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61907279873</v>
+        <v>62047789461</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>139100</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>139100</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.02262240089476109</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>45260</v>
+        <v>45267</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>45260.04166666666</v>
+        <v>45267.04166666666</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61908011012</t>
+          <t>/v1/utilizations/62048451528</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>61908011012</v>
+        <v>62048451528</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>106858</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>106858</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0173785500228405</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>45260.04166666666</v>
+        <v>45267.04166666666</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>45260.08333333334</v>
+        <v>45267.08333333334</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61908745751</t>
+          <t>/v1/utilizations/62049033317</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61908745751</v>
+        <v>62049033317</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2228,13 +2228,13 @@
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>121273</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>121273</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.01972264982759953</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45260.08333333334</v>
+        <v>45267.08333333334</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>45260.125</v>
+        <v>45267.125</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61909484316</t>
+          <t>/v1/utilizations/62049771656</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61909484316</v>
+        <v>62049771656</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>100853</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>100853</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.01640154980123043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45260.125</v>
+        <v>45267.125</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>45260.16666666666</v>
+        <v>45267.16666666666</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61910226481</t>
+          <t>/v1/utilizations/62050513595</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>61910226481</v>
+        <v>62050513595</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>201410</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>201410</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.03275455161929131</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45260.16666666666</v>
+        <v>45267.16666666666</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>45260.20833333334</v>
+        <v>45267.20833333334</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61910972246</t>
+          <t>/v1/utilizations/62051259134</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>61910972246</v>
+        <v>62051259134</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2420,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>321418</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>321418</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.05227042362093925</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>45260.20833333334</v>
+        <v>45267.20833333334</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>45260.25</v>
+        <v>45267.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61911721611</t>
+          <t>/v1/utilizations/62052008273</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61911721611</v>
+        <v>62052008273</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>383020</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>383020</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.06228769943118095</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>45260.25</v>
+        <v>45267.25</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>45260.29166666666</v>
+        <v>45267.29166666666</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61913907657</t>
+          <t>/v1/utilizations/62054032220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61913907657</v>
+        <v>62054032220</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>5443</v>
+        <v>454737</v>
       </c>
       <c r="K33" t="n">
-        <v>5443</v>
+        <v>454737</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0008868942386470735</v>
+        <v>0.07394962757825851</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>45260.29166666666</v>
+        <v>45267.29166666666</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>45260.33333333334</v>
+        <v>45267.33333333334</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61915608536</t>
+          <t>/v1/utilizations/62055964473</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>61915608536</v>
+        <v>62055964473</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>25154</v>
+        <v>547053</v>
       </c>
       <c r="K34" t="n">
-        <v>25154</v>
+        <v>547053</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004098610021173954</v>
+        <v>0.08896104991436005</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>45260.33333333334</v>
+        <v>45267.33333333334</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>45260.375</v>
+        <v>45267.375</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61916368701</t>
+          <t>/v1/utilizations/62056656480</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>61916368701</v>
+        <v>62056656480</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>42079</v>
+        <v>706707</v>
       </c>
       <c r="K35" t="n">
-        <v>42079</v>
+        <v>706707</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006856302730739117</v>
+        <v>0.1149222478270531</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45260.375</v>
+        <v>45267.375</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>45260.41666666666</v>
+        <v>45267.41666666666</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61916996170</t>
+          <t>/v1/utilizations/62057351907</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>61916996170</v>
+        <v>62057351907</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2740,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>30643</v>
+        <v>1055469</v>
       </c>
       <c r="K36" t="n">
-        <v>30643</v>
+        <v>1055469</v>
       </c>
       <c r="L36" t="n">
-        <v>0.004992870148271322</v>
+        <v>0.1716347485780716</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>45260.41666666666</v>
+        <v>45267.41666666666</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>45260.45833333334</v>
+        <v>45267.45833333334</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61917763535</t>
+          <t>/v1/utilizations/62058185280</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>61917763535</v>
+        <v>62058185280</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>52937</v>
+        <v>1281929</v>
       </c>
       <c r="K37" t="n">
-        <v>52937</v>
+        <v>1281929</v>
       </c>
       <c r="L37" t="n">
-        <v>0.008625290356576443</v>
+        <v>0.2084582448005676</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>45260.45833333334</v>
+        <v>45267.45833333334</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>45260.5</v>
+        <v>45267.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61918534500</t>
+          <t>/v1/utilizations/62059053672</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>61918534500</v>
+        <v>62059053672</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>14520</v>
+        <v>1632943</v>
       </c>
       <c r="K38" t="n">
-        <v>14520</v>
+        <v>1632943</v>
       </c>
       <c r="L38" t="n">
-        <v>0.002365794964134693</v>
+        <v>0.2655347585678101</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>45260.5</v>
+        <v>45267.5</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>45260.54166666666</v>
+        <v>45267.54166666666</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61919309065</t>
+          <t>/v1/utilizations/62060026899</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>61919309065</v>
+        <v>62060026899</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2932,13 +2932,13 @@
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>20528</v>
+        <v>1837537</v>
       </c>
       <c r="K39" t="n">
-        <v>20528</v>
+        <v>1837537</v>
       </c>
       <c r="L39" t="n">
-        <v>0.003344642464071512</v>
+        <v>0.2988002598285675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>45260.54166666666</v>
+        <v>45267.54166666666</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45260.58333333334</v>
+        <v>45267.58333333334</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61920087230</t>
+          <t>/v1/utilizations/62061003706</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>61920087230</v>
+        <v>62061003706</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2996,13 +2996,13 @@
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>67009</v>
+        <v>1999487</v>
       </c>
       <c r="K40" t="n">
-        <v>67009</v>
+        <v>1999487</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01091769989579916</v>
+        <v>0.3251315057277679</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>45260.58333333334</v>
+        <v>45267.58333333334</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>45260.625</v>
+        <v>45267.625</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61920868995</t>
+          <t>/v1/utilizations/62061833267</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>61920868995</v>
+        <v>62061833267</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3060,13 +3060,13 @@
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>64715</v>
+        <v>2173813</v>
       </c>
       <c r="K41" t="n">
-        <v>64715</v>
+        <v>2173813</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01054385211318731</v>
+        <v>0.3534737527370453</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>45260.625</v>
+        <v>45267.625</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>45260.66666666666</v>
+        <v>45267.66666666666</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61921654360</t>
+          <t>/v1/utilizations/62062817234</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>61921654360</v>
+        <v>62062817234</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3124,13 +3124,13 @@
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>30396</v>
+        <v>2678865</v>
       </c>
       <c r="K42" t="n">
-        <v>30396</v>
+        <v>2678865</v>
       </c>
       <c r="L42" t="n">
-        <v>0.004952279850840569</v>
+        <v>0.4355925023555756</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>45260.66666666666</v>
+        <v>45267.66666666666</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>45260.70833333334</v>
+        <v>45267.70833333334</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61922373917</t>
+          <t>/v1/utilizations/62063702601</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>61922373917</v>
+        <v>62063702601</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>28151</v>
+        <v>2962835</v>
       </c>
       <c r="K43" t="n">
-        <v>28151</v>
+        <v>2962835</v>
       </c>
       <c r="L43" t="n">
-        <v>0.004586460068821907</v>
+        <v>0.4817614853382111</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>45260.70833333334</v>
+        <v>45267.70833333334</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>45260.75</v>
+        <v>45267.75</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61923096894</t>
+          <t>/v1/utilizations/62064693728</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>61923096894</v>
+        <v>62064693728</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3252,13 +3252,13 @@
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>28266</v>
+        <v>3302871</v>
       </c>
       <c r="K44" t="n">
-        <v>28266</v>
+        <v>3302871</v>
       </c>
       <c r="L44" t="n">
-        <v>0.004605142399668694</v>
+        <v>0.5370454788208008</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>45260.75</v>
+        <v>45267.75</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>45260.79166666666</v>
+        <v>45267.79166666666</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61923753523</t>
+          <t>/v1/utilizations/62065585885</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>61923753523</v>
+        <v>62065585885</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>47961</v>
+        <v>3233787</v>
       </c>
       <c r="K45" t="n">
-        <v>47961</v>
+        <v>3233787</v>
       </c>
       <c r="L45" t="n">
-        <v>0.007813789881765842</v>
+        <v>0.5258062481880188</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>45260.79166666666</v>
+        <v>45267.79166666666</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>45260.83333333334</v>
+        <v>45267.83333333334</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61924553288</t>
+          <t>/v1/utilizations/62066584172</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>61924553288</v>
+        <v>62066584172</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>68043</v>
+        <v>3299883</v>
       </c>
       <c r="K46" t="n">
-        <v>68043</v>
+        <v>3299883</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01108540035784245</v>
+        <v>0.5365470051765442</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>45260.83333333334</v>
+        <v>45267.83333333334</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>45260.875</v>
+        <v>45267.875</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61925356653</t>
+          <t>/v1/utilizations/62067586039</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>61925356653</v>
+        <v>62067586039</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3444,13 +3444,13 @@
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>123526</v>
+        <v>3213077</v>
       </c>
       <c r="K47" t="n">
-        <v>123526</v>
+        <v>3213077</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02012434974312782</v>
+        <v>0.5224264860153198</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>45260.875</v>
+        <v>45267.875</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>45260.91666666666</v>
+        <v>45267.91666666666</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61926163618</t>
+          <t>/v1/utilizations/62068488381</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>61926163618</v>
+        <v>62068488381</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>259479</v>
+        <v>2968637</v>
       </c>
       <c r="K48" t="n">
-        <v>259479</v>
+        <v>2968637</v>
       </c>
       <c r="L48" t="n">
-        <v>0.04227272421121597</v>
+        <v>0.4826767444610596</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>45260.91666666666</v>
+        <v>45267.91666666666</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>45260.95833333334</v>
+        <v>45267.95833333334</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61926974183</t>
+          <t>/v1/utilizations/62069497408</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>61926974183</v>
+        <v>62069497408</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3572,13 +3572,13 @@
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>260280</v>
+        <v>2669561</v>
       </c>
       <c r="K49" t="n">
-        <v>260280</v>
+        <v>2669561</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04240277409553528</v>
+        <v>0.4340442419052124</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>45260.95833333334</v>
+        <v>45267.95833333334</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61927645250</t>
+          <t>/v1/utilizations/62070508239</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>61927645250</v>
+        <v>62070508239</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>227772</v>
+        <v>2534042</v>
       </c>
       <c r="K50" t="n">
-        <v>227772</v>
+        <v>2534042</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03710635006427765</v>
+        <v>0.4120052456855774</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>45261</v>
+        <v>45268</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>45261.04166666666</v>
+        <v>45268.04166666666</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61928376765</t>
+          <t>/v1/utilizations/62071438214</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>61928376765</v>
+        <v>62071438214</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>307908</v>
+        <v>2241030</v>
       </c>
       <c r="K51" t="n">
-        <v>307908</v>
+        <v>2241030</v>
       </c>
       <c r="L51" t="n">
-        <v>0.05016069859266281</v>
+        <v>0.3643607497215271</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>45261.04166666666</v>
+        <v>45268.04166666666</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>45261.08333333334</v>
+        <v>45268.08333333334</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61929111880</t>
+          <t>/v1/utilizations/62072371769</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61929111880</v>
+        <v>62072371769</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -3764,13 +3764,13 @@
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>300561</v>
+        <v>1907604</v>
       </c>
       <c r="K52" t="n">
-        <v>300561</v>
+        <v>1907604</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04896324872970581</v>
+        <v>0.3101467490196228</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>45261.08333333334</v>
+        <v>45268.08333333334</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>45261.125</v>
+        <v>45268.125</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61929850821</t>
+          <t>/v1/utilizations/62073309196</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>61929850821</v>
+        <v>62073309196</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>395859</v>
+        <v>1787343</v>
       </c>
       <c r="K53" t="n">
-        <v>395859</v>
+        <v>1787343</v>
       </c>
       <c r="L53" t="n">
-        <v>0.06448709964752197</v>
+        <v>0.2905904948711395</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>45261.125</v>
+        <v>45268.125</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>45261.16666666666</v>
+        <v>45268.16666666666</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61930593362</t>
+          <t>/v1/utilizations/62074250203</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>61930593362</v>
+        <v>62074250203</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -3892,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>431991</v>
+        <v>1644912</v>
       </c>
       <c r="K54" t="n">
-        <v>431991</v>
+        <v>1644912</v>
       </c>
       <c r="L54" t="n">
-        <v>0.07037240266799927</v>
+        <v>0.2674305140972137</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>45261.16666666666</v>
+        <v>45268.16666666666</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>45261.20833333334</v>
+        <v>45268.20833333334</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61931339503</t>
+          <t>/v1/utilizations/62075194790</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>61931339503</v>
+        <v>62075194790</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3956,13 +3956,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>359641</v>
+        <v>1589911</v>
       </c>
       <c r="K55" t="n">
-        <v>359641</v>
+        <v>1589911</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05858567357063293</v>
+        <v>0.2584854960441589</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>45261.20833333334</v>
+        <v>45268.20833333334</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>45261.25</v>
+        <v>45268.25</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61932089244</t>
+          <t>/v1/utilizations/62076142957</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>61932089244</v>
+        <v>62076142957</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4020,13 +4020,13 @@
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>273480</v>
+        <v>1563973</v>
       </c>
       <c r="K56" t="n">
-        <v>273480</v>
+        <v>1563973</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04454952478408813</v>
+        <v>0.2542657554149628</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -4035,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>45261.25</v>
+        <v>45268.25</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>45261.29166666666</v>
+        <v>45268.29166666666</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61934116134</t>
+          <t>/v1/utilizations/62078491714</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>61934116134</v>
+        <v>62078491714</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4084,13 +4084,13 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>212106</v>
+        <v>1380090</v>
       </c>
       <c r="K57" t="n">
-        <v>212106</v>
+        <v>1380090</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03455137461423874</v>
+        <v>0.2243677526712418</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4099,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>45261.29166666666</v>
+        <v>45268.29166666666</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>45261.33333333334</v>
+        <v>45268.33333333334</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61936046648</t>
+          <t>/v1/utilizations/62080429581</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>61936046648</v>
+        <v>62080429581</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4148,13 +4148,13 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>207126</v>
+        <v>1310972</v>
       </c>
       <c r="K58" t="n">
-        <v>207126</v>
+        <v>1310972</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03373972326517105</v>
+        <v>0.2131285071372986</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4163,10 +4163,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>45261.33333333334</v>
+        <v>45268.33333333334</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>45261.375</v>
+        <v>45268.375</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61936807189</t>
+          <t>/v1/utilizations/62081287788</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>61936807189</v>
+        <v>62081287788</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>265278</v>
+        <v>1153968</v>
       </c>
       <c r="K59" t="n">
-        <v>265278</v>
+        <v>1153968</v>
       </c>
       <c r="L59" t="n">
-        <v>0.04321189969778061</v>
+        <v>0.1876015067100525</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>45261.375</v>
+        <v>45268.375</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>45261.41666666666</v>
+        <v>45268.41666666666</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61937503218</t>
+          <t>/v1/utilizations/62082250275</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>61937503218</v>
+        <v>62082250275</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -4276,13 +4276,13 @@
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>306371</v>
+        <v>909668</v>
       </c>
       <c r="K60" t="n">
-        <v>306371</v>
+        <v>909668</v>
       </c>
       <c r="L60" t="n">
-        <v>0.04990505054593086</v>
+        <v>0.1478839963674545</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4291,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>45261.41666666666</v>
+        <v>45268.41666666666</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>45261.45833333334</v>
+        <v>45268.45833333334</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61938270959</t>
+          <t>/v1/utilizations/62083216342</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>61938270959</v>
+        <v>62083216342</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4340,13 +4340,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>421609</v>
+        <v>919730</v>
       </c>
       <c r="K61" t="n">
-        <v>421609</v>
+        <v>919730</v>
       </c>
       <c r="L61" t="n">
-        <v>0.06867542862892151</v>
+        <v>0.1495179980993271</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>45261.45833333334</v>
+        <v>45268.45833333334</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>45261.5</v>
+        <v>45268.5</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61938905356</t>
+          <t>/v1/utilizations/62084084734</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>61938905356</v>
+        <v>62084084734</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -4404,13 +4404,13 @@
         <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>392917</v>
+        <v>936625</v>
       </c>
       <c r="K62" t="n">
-        <v>392917</v>
+        <v>936625</v>
       </c>
       <c r="L62" t="n">
-        <v>0.06400112807750702</v>
+        <v>0.1522627472877502</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4419,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>45261.5</v>
+        <v>45268.5</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>45261.54166666666</v>
+        <v>45268.54166666666</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61939680297</t>
+          <t>/v1/utilizations/62085057961</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>61939680297</v>
+        <v>62085057961</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4468,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>303986</v>
+        <v>991744</v>
       </c>
       <c r="K63" t="n">
-        <v>303986</v>
+        <v>991744</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0495147742331028</v>
+        <v>0.1612212508916855</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>45261.54166666666</v>
+        <v>45268.54166666666</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>45261.58333333334</v>
+        <v>45268.58333333334</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61940458838</t>
+          <t>/v1/utilizations/62086034768</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>61940458838</v>
+        <v>62086034768</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4532,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>281219</v>
+        <v>1113483</v>
       </c>
       <c r="K64" t="n">
-        <v>281219</v>
+        <v>1113483</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04580587521195412</v>
+        <v>0.1810092478990555</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>45261.58333333334</v>
+        <v>45268.58333333334</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>45261.625</v>
+        <v>45268.625</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61941102955</t>
+          <t>/v1/utilizations/62087015155</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>61941102955</v>
+        <v>62087015155</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4596,13 +4596,13 @@
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>205125</v>
+        <v>1066491</v>
       </c>
       <c r="K65" t="n">
-        <v>205125</v>
+        <v>1066491</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03341102600097656</v>
+        <v>0.1733682453632355</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>45261.625</v>
+        <v>45268.625</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>45261.66666666666</v>
+        <v>45268.66666666666</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61941819504</t>
+          <t>/v1/utilizations/62087999122</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>61941819504</v>
+        <v>62087999122</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4660,13 +4660,13 @@
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>153701</v>
+        <v>961006</v>
       </c>
       <c r="K66" t="n">
-        <v>153701</v>
+        <v>961006</v>
       </c>
       <c r="L66" t="n">
-        <v>0.02503472566604614</v>
+        <v>0.1562187522649765</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>45261.66666666666</v>
+        <v>45268.66666666666</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>45261.70833333334</v>
+        <v>45268.70833333334</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61942470101</t>
+          <t>/v1/utilizations/62088782309</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>61942470101</v>
+        <v>62088782309</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4724,13 +4724,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>134981</v>
+        <v>1180600</v>
       </c>
       <c r="K67" t="n">
-        <v>134981</v>
+        <v>1180600</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02198537439107895</v>
+        <v>0.1919132471084595</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>45261.70833333334</v>
+        <v>45268.70833333334</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>45261.75</v>
+        <v>45268.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61943263042</t>
+          <t>/v1/utilizations/62089568706</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>61943263042</v>
+        <v>62089568706</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>122857</v>
+        <v>1607401</v>
       </c>
       <c r="K68" t="n">
-        <v>122857</v>
+        <v>1607401</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02001040056347847</v>
+        <v>0.2612892389297485</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>45261.75</v>
+        <v>45268.75</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>45261.79166666666</v>
+        <v>45268.79166666666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61943920119</t>
+          <t>/v1/utilizations/62090460863</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>61943920119</v>
+        <v>62090460863</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4852,13 +4852,13 @@
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>50409</v>
+        <v>1816233</v>
       </c>
       <c r="K69" t="n">
-        <v>50409</v>
+        <v>1816233</v>
       </c>
       <c r="L69" t="n">
-        <v>0.008210312575101852</v>
+        <v>0.2952319979667664</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4867,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>45261.79166666666</v>
+        <v>45268.79166666666</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>45261.83333333334</v>
+        <v>45268.83333333334</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61944720260</t>
+          <t>/v1/utilizations/62091459150</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>61944720260</v>
+        <v>62091459150</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>22213</v>
+        <v>2049372</v>
       </c>
       <c r="K70" t="n">
-        <v>22213</v>
+        <v>2049372</v>
       </c>
       <c r="L70" t="n">
-        <v>0.003617865033447742</v>
+        <v>0.3331252634525299</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4931,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>45261.83333333334</v>
+        <v>45268.83333333334</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>45261.875</v>
+        <v>45268.875</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61945524001</t>
+          <t>/v1/utilizations/62092461017</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>61945524001</v>
+        <v>62092461017</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -4980,13 +4980,13 @@
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>30083</v>
+        <v>2498845</v>
       </c>
       <c r="K71" t="n">
-        <v>30083</v>
+        <v>2498845</v>
       </c>
       <c r="L71" t="n">
-        <v>0.004899612627923489</v>
+        <v>0.4061819911003113</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>45261.875</v>
+        <v>45268.875</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>45261.91666666666</v>
+        <v>45268.91666666666</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61946261070</t>
+          <t>/v1/utilizations/62093466464</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>61946261070</v>
+        <v>62093466464</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>18856</v>
+        <v>2688424</v>
       </c>
       <c r="K72" t="n">
-        <v>18856</v>
+        <v>2688424</v>
       </c>
       <c r="L72" t="n">
-        <v>0.003071042476221919</v>
+        <v>0.4369930028915405</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>45261.91666666666</v>
+        <v>45268.91666666666</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>45261.95833333334</v>
+        <v>45268.95833333334</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61947072011</t>
+          <t>/v1/utilizations/62094475491</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>61947072011</v>
+        <v>62094475491</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -5108,13 +5108,13 @@
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>3564</v>
+        <v>2712404</v>
       </c>
       <c r="K73" t="n">
-        <v>3564</v>
+        <v>2712404</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0005804542452096939</v>
+        <v>0.4408852458000183</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>45261.95833333334</v>
+        <v>45268.95833333334</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61947884776</t>
+          <t>/v1/utilizations/62095486322</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>61947884776</v>
+        <v>62095486322</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -5172,13 +5172,13 @@
         <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>4707</v>
+        <v>2759651</v>
       </c>
       <c r="K74" t="n">
-        <v>4707</v>
+        <v>2759651</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0007666002493351698</v>
+        <v>0.4485597610473633</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -5187,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>45262.04166666666</v>
+        <v>45269.04166666666</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61948616291</t>
+          <t>/v1/utilizations/62096416297</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>61948616291</v>
+        <v>62096416297</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -5236,13 +5236,13 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>6112</v>
+        <v>2815496</v>
       </c>
       <c r="K75" t="n">
-        <v>6112</v>
+        <v>2815496</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00099541200324893</v>
+        <v>0.4576317369937897</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>45262.04166666666</v>
+        <v>45269.04166666666</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>45262.08333333334</v>
+        <v>45269.08333333334</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61949351406</t>
+          <t>/v1/utilizations/62097349852</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>61949351406</v>
+        <v>62097349852</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -5300,13 +5300,13 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>6565</v>
+        <v>2778269</v>
       </c>
       <c r="K76" t="n">
-        <v>6565</v>
+        <v>2778269</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001069175777956843</v>
+        <v>0.451575756072998</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -5315,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>45262.08333333334</v>
+        <v>45269.08333333334</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>45262.125</v>
+        <v>45269.125</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61950090347</t>
+          <t>/v1/utilizations/62098287279</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>61950090347</v>
+        <v>62098287279</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -5364,13 +5364,13 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3607</v>
+        <v>2904380</v>
       </c>
       <c r="K77" t="n">
-        <v>3607</v>
+        <v>2904380</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0005874300259165466</v>
+        <v>0.4720680117607117</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>45262.125</v>
+        <v>45269.125</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>45262.16666666666</v>
+        <v>45269.16666666666</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61950832888</t>
+          <t>/v1/utilizations/62099228286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>61950832888</v>
+        <v>62099228286</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -5428,13 +5428,13 @@
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>365</v>
+        <v>2844820</v>
       </c>
       <c r="K78" t="n">
-        <v>365</v>
+        <v>2844820</v>
       </c>
       <c r="L78" t="n">
-        <v>5.944275108049624e-05</v>
+        <v>0.4623819887638092</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="O78" s="2" t="n">
-        <v>45262.16666666666</v>
+        <v>45269.16666666666</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>45262.20833333334</v>
+        <v>45269.20833333334</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61951579029</t>
+          <t>/v1/utilizations/62100172873</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>61951579029</v>
+        <v>62100172873</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -5492,13 +5492,13 @@
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>7602</v>
+        <v>2815106</v>
       </c>
       <c r="K79" t="n">
-        <v>7602</v>
+        <v>2815106</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00123801501467824</v>
+        <v>0.45754674077034</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>45262.20833333334</v>
+        <v>45269.20833333334</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>45262.25</v>
+        <v>45269.25</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61952328770</t>
+          <t>/v1/utilizations/62101121040</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>61952328770</v>
+        <v>62101121040</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -5556,13 +5556,13 @@
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>25390</v>
+        <v>3176536</v>
       </c>
       <c r="K80" t="n">
-        <v>25390</v>
+        <v>3176536</v>
       </c>
       <c r="L80" t="n">
-        <v>0.004134819842875004</v>
+        <v>0.5162847638130188</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="O80" s="2" t="n">
-        <v>45262.25</v>
+        <v>45269.25</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>45262.29166666666</v>
+        <v>45269.29166666666</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61954501870</t>
+          <t>/v1/utilizations/62103410433</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>61954501870</v>
+        <v>62103410433</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -5620,13 +5620,13 @@
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>37752</v>
+        <v>3906343</v>
       </c>
       <c r="K81" t="n">
-        <v>37752</v>
+        <v>3906343</v>
       </c>
       <c r="L81" t="n">
-        <v>0.006147940177470446</v>
+        <v>0.6348934769630432</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="O81" s="2" t="n">
-        <v>45262.29166666666</v>
+        <v>45269.29166666666</v>
       </c>
       <c r="P81" s="2" t="n">
-        <v>45262.33333333334</v>
+        <v>45269.33333333334</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61955826166</t>
+          <t>/v1/utilizations/62105407664</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>61955826166</v>
+        <v>62105407664</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -5684,13 +5684,13 @@
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>90490</v>
+        <v>4083561</v>
       </c>
       <c r="K82" t="n">
-        <v>90490</v>
+        <v>4083561</v>
       </c>
       <c r="L82" t="n">
-        <v>0.01473615970462561</v>
+        <v>0.6636887788772583</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5699,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="O82" s="2" t="n">
-        <v>45262.33333333334</v>
+        <v>45269.33333333334</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>45262.375</v>
+        <v>45269.375</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61956586707</t>
+          <t>/v1/utilizations/62106366571</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>61956586707</v>
+        <v>62106366571</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -5748,13 +5748,13 @@
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>163373</v>
+        <v>4295993</v>
       </c>
       <c r="K83" t="n">
-        <v>163373</v>
+        <v>4295993</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02660474926233292</v>
+        <v>0.6982067227363586</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -5763,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="2" t="n">
-        <v>45262.375</v>
+        <v>45269.375</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>45262.41666666666</v>
+        <v>45269.41666666666</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61957282736</t>
+          <t>/v1/utilizations/62107329058</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5789,7 +5789,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>61957282736</v>
+        <v>62107329058</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>195163</v>
+        <v>4411521</v>
       </c>
       <c r="K84" t="n">
-        <v>195163</v>
+        <v>4411521</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03178124874830246</v>
+        <v>0.7169744968414307</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="O84" s="2" t="n">
-        <v>45262.41666666666</v>
+        <v>45269.41666666666</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>45262.45833333334</v>
+        <v>45269.45833333334</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61958050477</t>
+          <t>/v1/utilizations/62108295125</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>61958050477</v>
+        <v>62108295125</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -5876,13 +5876,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>193721</v>
+        <v>4821678</v>
       </c>
       <c r="K85" t="n">
-        <v>193721</v>
+        <v>4821678</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03154610097408295</v>
+        <v>0.7836252450942993</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="O85" s="2" t="n">
-        <v>45262.45833333334</v>
+        <v>45269.45833333334</v>
       </c>
       <c r="P85" s="2" t="n">
-        <v>45262.5</v>
+        <v>45269.5</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61958679879</t>
+          <t>/v1/utilizations/62109264772</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>61958679879</v>
+        <v>62109264772</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -5940,13 +5940,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>160259</v>
+        <v>5052937</v>
       </c>
       <c r="K86" t="n">
-        <v>160259</v>
+        <v>5052937</v>
       </c>
       <c r="L86" t="n">
-        <v>0.02609672583639622</v>
+        <v>0.8212002515792847</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -5955,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="O86" s="2" t="n">
-        <v>45262.5</v>
+        <v>45269.5</v>
       </c>
       <c r="P86" s="2" t="n">
-        <v>45262.54166666666</v>
+        <v>45269.54166666666</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61959454820</t>
+          <t>/v1/utilizations/62110237999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>61959454820</v>
+        <v>62110237999</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -6004,13 +6004,13 @@
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>136157</v>
+        <v>5038617</v>
       </c>
       <c r="K87" t="n">
-        <v>136157</v>
+        <v>5038617</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02217167429625988</v>
+        <v>0.8188632726669312</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -6019,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="O87" s="2" t="n">
-        <v>45262.54166666666</v>
+        <v>45269.54166666666</v>
       </c>
       <c r="P87" s="2" t="n">
-        <v>45262.58333333334</v>
+        <v>45269.58333333334</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61960233361</t>
+          <t>/v1/utilizations/62111214806</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>61960233361</v>
+        <v>62111214806</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -6068,13 +6068,13 @@
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>181126</v>
+        <v>5204626</v>
       </c>
       <c r="K88" t="n">
-        <v>181126</v>
+        <v>5204626</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0294940248131752</v>
+        <v>0.8458322286605835</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="O88" s="2" t="n">
-        <v>45262.58333333334</v>
+        <v>45269.58333333334</v>
       </c>
       <c r="P88" s="2" t="n">
-        <v>45262.625</v>
+        <v>45269.625</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61961015502</t>
+          <t>/v1/utilizations/62112195193</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6109,7 +6109,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>61961015502</v>
+        <v>62112195193</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -6132,13 +6132,13 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>206510</v>
+        <v>5487123</v>
       </c>
       <c r="K89" t="n">
-        <v>206510</v>
+        <v>5487123</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03362712636590004</v>
+        <v>0.8917319774627686</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -6147,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="2" t="n">
-        <v>45262.625</v>
+        <v>45269.625</v>
       </c>
       <c r="P89" s="2" t="n">
-        <v>45262.66666666666</v>
+        <v>45269.66666666666</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61961732051</t>
+          <t>/v1/utilizations/62113179160</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>61961732051</v>
+        <v>62113179160</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -6196,13 +6196,13 @@
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>254395</v>
+        <v>5593268</v>
       </c>
       <c r="K90" t="n">
-        <v>254395</v>
+        <v>5593268</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04142395034432411</v>
+        <v>0.9089717268943787</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="O90" s="2" t="n">
-        <v>45262.66666666666</v>
+        <v>45269.66666666666</v>
       </c>
       <c r="P90" s="2" t="n">
-        <v>45262.70833333334</v>
+        <v>45269.70833333334</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61962382648</t>
+          <t>/v1/utilizations/62113962347</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>61962382648</v>
+        <v>62113962347</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -6260,13 +6260,13 @@
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>334029</v>
+        <v>5524146</v>
       </c>
       <c r="K91" t="n">
-        <v>334029</v>
+        <v>5524146</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05439037457108498</v>
+        <v>0.8977277278900146</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -6275,10 +6275,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="2" t="n">
-        <v>45262.70833333334</v>
+        <v>45269.70833333334</v>
       </c>
       <c r="P91" s="2" t="n">
-        <v>45262.75</v>
+        <v>45269.75</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61963106037</t>
+          <t>/v1/utilizations/62114953474</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>61963106037</v>
+        <v>62114953474</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -6324,13 +6324,13 @@
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>469024</v>
+        <v>5289946</v>
       </c>
       <c r="K92" t="n">
-        <v>469024</v>
+        <v>5289946</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07637090235948563</v>
+        <v>0.8596577644348145</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="O92" s="2" t="n">
-        <v>45262.75</v>
+        <v>45269.75</v>
       </c>
       <c r="P92" s="2" t="n">
-        <v>45262.79166666666</v>
+        <v>45269.79166666666</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61963763114</t>
+          <t>/v1/utilizations/62115743081</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>61963763114</v>
+        <v>62115743081</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -6388,13 +6388,13 @@
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>497231</v>
+        <v>5372972</v>
       </c>
       <c r="K93" t="n">
-        <v>497231</v>
+        <v>5372972</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0809628963470459</v>
+        <v>0.8731399774551392</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -6403,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="O93" s="2" t="n">
-        <v>45262.79166666666</v>
+        <v>45269.79166666666</v>
       </c>
       <c r="P93" s="2" t="n">
-        <v>45262.83333333334</v>
+        <v>45269.83333333334</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61964423431</t>
+          <t>/v1/utilizations/62116638633</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6429,7 +6429,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>61964423431</v>
+        <v>62116638633</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -6452,13 +6452,13 @@
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>511095</v>
+        <v>5022162</v>
       </c>
       <c r="K94" t="n">
-        <v>511095</v>
+        <v>5022162</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08321937173604965</v>
+        <v>0.8161219954490662</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -6467,10 +6467,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="2" t="n">
-        <v>45262.83333333334</v>
+        <v>45269.83333333334</v>
       </c>
       <c r="P94" s="2" t="n">
-        <v>45262.875</v>
+        <v>45269.875</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61965227172</t>
+          <t>/v1/utilizations/62117640500</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>61965227172</v>
+        <v>62117640500</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>408290</v>
+        <v>5044887</v>
       </c>
       <c r="K95" t="n">
-        <v>408290</v>
+        <v>5044887</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06647930294275284</v>
+        <v>0.8198052644729614</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="O95" s="2" t="n">
-        <v>45262.875</v>
+        <v>45269.875</v>
       </c>
       <c r="P95" s="2" t="n">
-        <v>45262.91666666666</v>
+        <v>45269.91666666666</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61965964241</t>
+          <t>/v1/utilizations/62118439737</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>61965964241</v>
+        <v>62118439737</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -6580,13 +6580,13 @@
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>422003</v>
+        <v>5366103</v>
       </c>
       <c r="K96" t="n">
-        <v>422003</v>
+        <v>5366103</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0687113031744957</v>
+        <v>0.8719930052757263</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -6595,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="O96" s="2" t="n">
-        <v>45262.91666666666</v>
+        <v>45269.91666666666</v>
       </c>
       <c r="P96" s="2" t="n">
-        <v>45262.95833333334</v>
+        <v>45269.95833333334</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61966775182</t>
+          <t>/v1/utilizations/62119448764</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>61966775182</v>
+        <v>62119448764</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -6644,13 +6644,13 @@
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>500042</v>
+        <v>5633260</v>
       </c>
       <c r="K97" t="n">
-        <v>500042</v>
+        <v>5633260</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0814167782664299</v>
+        <v>0.9153952598571777</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -6659,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="O97" s="2" t="n">
-        <v>45262.95833333334</v>
+        <v>45269.95833333334</v>
       </c>
       <c r="P97" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61967587933</t>
+          <t>/v1/utilizations/62120459595</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>61967587933</v>
+        <v>62120459595</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -6708,13 +6708,13 @@
         <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>395946</v>
+        <v>5899973</v>
       </c>
       <c r="K98" t="n">
-        <v>395946</v>
+        <v>5899973</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06446714699268341</v>
+        <v>0.9587244987487793</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -6723,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="O98" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="P98" s="2" t="n">
-        <v>45263.04166666666</v>
+        <v>45270.04166666666</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61968318846</t>
+          <t>/v1/utilizations/62121389570</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>61968318846</v>
+        <v>62121389570</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -6772,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>511434</v>
+        <v>6060461</v>
       </c>
       <c r="K99" t="n">
-        <v>511434</v>
+        <v>6060461</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0832696259021759</v>
+        <v>0.9847917556762695</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="O99" s="2" t="n">
-        <v>45263.04166666666</v>
+        <v>45270.04166666666</v>
       </c>
       <c r="P99" s="2" t="n">
-        <v>45263.08333333334</v>
+        <v>45270.08333333334</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61969053359</t>
+          <t>/v1/utilizations/62122323125</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>61969053359</v>
+        <v>62122323125</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -6836,13 +6836,13 @@
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>592975</v>
+        <v>6093766</v>
       </c>
       <c r="K100" t="n">
-        <v>592975</v>
+        <v>6093766</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0965447723865509</v>
+        <v>0.9901919960975647</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="2" t="n">
-        <v>45263.08333333334</v>
+        <v>45270.08333333334</v>
       </c>
       <c r="P100" s="2" t="n">
-        <v>45263.125</v>
+        <v>45270.125</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61969791698</t>
+          <t>/v1/utilizations/62123260552</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>61969791698</v>
+        <v>62123260552</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -6900,13 +6900,13 @@
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>540891</v>
+        <v>6104628</v>
       </c>
       <c r="K101" t="n">
-        <v>540891</v>
+        <v>6104628</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08806364983320236</v>
+        <v>0.9919452667236328</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -6915,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="O101" s="2" t="n">
-        <v>45263.125</v>
+        <v>45270.125</v>
       </c>
       <c r="P101" s="2" t="n">
-        <v>45263.16666666666</v>
+        <v>45270.16666666666</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61970533637</t>
+          <t>/v1/utilizations/62124201559</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>61970533637</v>
+        <v>62124201559</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -6964,13 +6964,13 @@
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>710508</v>
+        <v>5737384</v>
       </c>
       <c r="K102" t="n">
-        <v>710508</v>
+        <v>5737384</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1156781241297722</v>
+        <v>0.9322607517242432</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="O102" s="2" t="n">
-        <v>45263.16666666666</v>
+        <v>45270.16666666666</v>
       </c>
       <c r="P102" s="2" t="n">
-        <v>45263.20833333334</v>
+        <v>45270.20833333334</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61971279176</t>
+          <t>/v1/utilizations/62125146146</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>61971279176</v>
+        <v>62125146146</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>762658</v>
+        <v>5362847</v>
       </c>
       <c r="K103" t="n">
-        <v>762658</v>
+        <v>5362847</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1241672486066818</v>
+        <v>0.8713922500610352</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="O103" s="2" t="n">
-        <v>45263.20833333334</v>
+        <v>45270.20833333334</v>
       </c>
       <c r="P103" s="2" t="n">
-        <v>45263.25</v>
+        <v>45270.25</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61972028315</t>
+          <t>/v1/utilizations/62126094313</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>61972028315</v>
+        <v>62126094313</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -7092,13 +7092,13 @@
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>754113</v>
+        <v>6139579</v>
       </c>
       <c r="K104" t="n">
-        <v>754113</v>
+        <v>6139579</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1227744966745377</v>
+        <v>0.9975892305374146</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -7107,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="O104" s="2" t="n">
-        <v>45263.25</v>
+        <v>45270.25</v>
       </c>
       <c r="P104" s="2" t="n">
-        <v>45263.29166666666</v>
+        <v>45270.29166666666</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61974153388</t>
+          <t>/v1/utilizations/62128389112</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>61974153388</v>
+        <v>62128389112</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7156,13 +7156,13 @@
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>906162</v>
+        <v>6135286</v>
       </c>
       <c r="K105" t="n">
-        <v>906162</v>
+        <v>6135286</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1475272476673126</v>
+        <v>0.9968797564506531</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="O105" s="2" t="n">
-        <v>45263.29166666666</v>
+        <v>45270.29166666666</v>
       </c>
       <c r="P105" s="2" t="n">
-        <v>45263.33333333334</v>
+        <v>45270.33333333334</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61975984631</t>
+          <t>/v1/utilizations/62130485685</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>61975984631</v>
+        <v>62130485685</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -7220,13 +7220,13 @@
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>1220494</v>
+        <v>6045660</v>
       </c>
       <c r="K106" t="n">
-        <v>1220494</v>
+        <v>6045660</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1986995041370392</v>
+        <v>0.9823057651519775</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="n">
-        <v>45263.33333333334</v>
+        <v>45270.33333333334</v>
       </c>
       <c r="P106" s="2" t="n">
-        <v>45263.375</v>
+        <v>45270.375</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61976744570</t>
+          <t>/v1/utilizations/62131444592</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7261,7 +7261,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>61976744570</v>
+        <v>62131444592</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -7284,13 +7284,13 @@
         <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1742711</v>
+        <v>5873493</v>
       </c>
       <c r="K107" t="n">
-        <v>1742711</v>
+        <v>5873493</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2837147414684296</v>
+        <v>0.9543207287788391</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -7299,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="O107" s="2" t="n">
-        <v>45263.375</v>
+        <v>45270.375</v>
       </c>
       <c r="P107" s="2" t="n">
-        <v>45263.41666666666</v>
+        <v>45270.41666666666</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61977508109</t>
+          <t>/v1/utilizations/62132407079</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>61977508109</v>
+        <v>62132407079</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -7348,13 +7348,13 @@
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2230956</v>
+        <v>5752077</v>
       </c>
       <c r="K108" t="n">
-        <v>2230956</v>
+        <v>5752077</v>
       </c>
       <c r="L108" t="n">
-        <v>0.36319699883461</v>
+        <v>0.934581995010376</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="O108" s="2" t="n">
-        <v>45263.41666666666</v>
+        <v>45270.41666666666</v>
       </c>
       <c r="P108" s="2" t="n">
-        <v>45263.45833333334</v>
+        <v>45270.45833333334</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61978275248</t>
+          <t>/v1/utilizations/62133373146</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>61978275248</v>
+        <v>62133373146</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -7412,13 +7412,13 @@
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2600063</v>
+        <v>5479852</v>
       </c>
       <c r="K109" t="n">
-        <v>2600063</v>
+        <v>5479852</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4232819974422455</v>
+        <v>0.8903415203094482</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7427,10 +7427,10 @@
         <v>0</v>
       </c>
       <c r="O109" s="2" t="n">
-        <v>45263.45833333334</v>
+        <v>45270.45833333334</v>
       </c>
       <c r="P109" s="2" t="n">
-        <v>45263.5</v>
+        <v>45270.5</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61979045987</t>
+          <t>/v1/utilizations/62134342793</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7453,7 +7453,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>61979045987</v>
+        <v>62134342793</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2888413</v>
+        <v>5027488</v>
       </c>
       <c r="K110" t="n">
-        <v>2888413</v>
+        <v>5027488</v>
       </c>
       <c r="L110" t="n">
-        <v>0.4702189862728119</v>
+        <v>0.8168337345123291</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7491,10 +7491,10 @@
         <v>0</v>
       </c>
       <c r="O110" s="2" t="n">
-        <v>45263.5</v>
+        <v>45270.5</v>
       </c>
       <c r="P110" s="2" t="n">
-        <v>45263.54166666666</v>
+        <v>45270.54166666666</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61979820326</t>
+          <t>/v1/utilizations/62135316020</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>61979820326</v>
+        <v>62135316020</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -7540,13 +7540,13 @@
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2821432</v>
+        <v>4645365</v>
       </c>
       <c r="K111" t="n">
-        <v>2821432</v>
+        <v>4645365</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4593094885349274</v>
+        <v>0.7547397613525391</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -7555,10 +7555,10 @@
         <v>0</v>
       </c>
       <c r="O111" s="2" t="n">
-        <v>45263.54166666666</v>
+        <v>45270.54166666666</v>
       </c>
       <c r="P111" s="2" t="n">
-        <v>45263.58333333334</v>
+        <v>45270.58333333334</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61980598265</t>
+          <t>/v1/utilizations/62136292827</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7581,7 +7581,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>61980598265</v>
+        <v>62136292827</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -7604,13 +7604,13 @@
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2492314</v>
+        <v>4244864</v>
       </c>
       <c r="K112" t="n">
-        <v>2492314</v>
+        <v>4244864</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4057267606258392</v>
+        <v>0.689661979675293</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7619,10 +7619,10 @@
         <v>0</v>
       </c>
       <c r="O112" s="2" t="n">
-        <v>45263.58333333334</v>
+        <v>45270.58333333334</v>
       </c>
       <c r="P112" s="2" t="n">
-        <v>45263.625</v>
+        <v>45270.625</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61981379804</t>
+          <t>/v1/utilizations/62137273214</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>61981379804</v>
+        <v>62137273214</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -7668,13 +7668,13 @@
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2456111</v>
+        <v>3756878</v>
       </c>
       <c r="K113" t="n">
-        <v>2456111</v>
+        <v>3756878</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3998282551765442</v>
+        <v>0.610371470451355</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -7683,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="O113" s="2" t="n">
-        <v>45263.625</v>
+        <v>45270.625</v>
       </c>
       <c r="P113" s="2" t="n">
-        <v>45263.66666666666</v>
+        <v>45270.66666666666</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61982164943</t>
+          <t>/v1/utilizations/62138257181</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>61982164943</v>
+        <v>62138257181</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -7732,13 +7732,13 @@
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2697546</v>
+        <v>3969790</v>
       </c>
       <c r="K114" t="n">
-        <v>2697546</v>
+        <v>3969790</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4391262531280518</v>
+        <v>0.6449552774429321</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -7747,10 +7747,10 @@
         <v>0</v>
       </c>
       <c r="O114" s="2" t="n">
-        <v>45263.66666666666</v>
+        <v>45270.66666666666</v>
       </c>
       <c r="P114" s="2" t="n">
-        <v>45263.70833333334</v>
+        <v>45270.70833333334</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61982884310</t>
+          <t>/v1/utilizations/62139040368</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>61982884310</v>
+        <v>62139040368</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -7796,13 +7796,13 @@
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>3110210</v>
+        <v>4544382</v>
       </c>
       <c r="K115" t="n">
-        <v>3110210</v>
+        <v>4544382</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5062967538833618</v>
+        <v>0.738298237323761</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -7811,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="O115" s="2" t="n">
-        <v>45263.70833333334</v>
+        <v>45270.70833333334</v>
       </c>
       <c r="P115" s="2" t="n">
-        <v>45263.75</v>
+        <v>45270.75</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61983676649</t>
+          <t>/v1/utilizations/62139826765</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>61983676649</v>
+        <v>62139826765</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -7860,13 +7860,13 @@
         <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>3220670</v>
+        <v>4278188</v>
       </c>
       <c r="K116" t="n">
-        <v>3220670</v>
+        <v>4278188</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5242714881896973</v>
+        <v>0.6950432658195496</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="O116" s="2" t="n">
-        <v>45263.75</v>
+        <v>45270.75</v>
       </c>
       <c r="P116" s="2" t="n">
-        <v>45263.79166666666</v>
+        <v>45270.79166666666</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61984333124</t>
+          <t>/v1/utilizations/62140616372</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7901,7 +7901,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>61984333124</v>
+        <v>62140616372</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -7924,13 +7924,13 @@
         <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>3232538</v>
+        <v>4377685</v>
       </c>
       <c r="K117" t="n">
-        <v>3232538</v>
+        <v>4377685</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5261974930763245</v>
+        <v>0.7111992239952087</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -7939,10 +7939,10 @@
         <v>0</v>
       </c>
       <c r="O117" s="2" t="n">
-        <v>45263.79166666666</v>
+        <v>45270.79166666666</v>
       </c>
       <c r="P117" s="2" t="n">
-        <v>45263.83333333334</v>
+        <v>45270.83333333334</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61985132663</t>
+          <t>/v1/utilizations/62141511924</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>61985132663</v>
+        <v>62141511924</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7988,13 +7988,13 @@
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>3264389</v>
+        <v>4415282</v>
       </c>
       <c r="K118" t="n">
-        <v>3264389</v>
+        <v>4415282</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5313760042190552</v>
+        <v>0.7172987461090088</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -8003,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="O118" s="2" t="n">
-        <v>45263.83333333334</v>
+        <v>45270.83333333334</v>
       </c>
       <c r="P118" s="2" t="n">
-        <v>45263.875</v>
+        <v>45270.875</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61985935802</t>
+          <t>/v1/utilizations/62142290699</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>61985935802</v>
+        <v>62142290699</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -8052,13 +8052,13 @@
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>3154379</v>
+        <v>4824796</v>
       </c>
       <c r="K119" t="n">
-        <v>3154379</v>
+        <v>4824796</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5134627223014832</v>
+        <v>0.7838187217712402</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="O119" s="2" t="n">
-        <v>45263.875</v>
+        <v>45270.875</v>
       </c>
       <c r="P119" s="2" t="n">
-        <v>45263.91666666666</v>
+        <v>45270.91666666666</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61986601997</t>
+          <t>/v1/utilizations/62143193041</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>61986601997</v>
+        <v>62143193041</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -8116,13 +8116,13 @@
         <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3050536</v>
+        <v>5193306</v>
       </c>
       <c r="K120" t="n">
-        <v>3050536</v>
+        <v>5193306</v>
       </c>
       <c r="L120" t="n">
-        <v>0.496553510427475</v>
+        <v>0.8436754941940308</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -8131,10 +8131,10 @@
         <v>0</v>
       </c>
       <c r="O120" s="2" t="n">
-        <v>45263.91666666666</v>
+        <v>45270.91666666666</v>
       </c>
       <c r="P120" s="2" t="n">
-        <v>45263.95833333334</v>
+        <v>45270.95833333334</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61987412336</t>
+          <t>/v1/utilizations/62144202068</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>61987412336</v>
+        <v>62144202068</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -8180,13 +8180,13 @@
         <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>3017010</v>
+        <v>5376819</v>
       </c>
       <c r="K121" t="n">
-        <v>3017010</v>
+        <v>5376819</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4910905063152313</v>
+        <v>0.8734777569770813</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -8195,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="O121" s="2" t="n">
-        <v>45263.95833333334</v>
+        <v>45270.95833333334</v>
       </c>
       <c r="P121" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61988224499</t>
+          <t>/v1/utilizations/62145212899</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>61988224499</v>
+        <v>62145212899</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2702104</v>
+        <v>5117075</v>
       </c>
       <c r="K122" t="n">
-        <v>2702104</v>
+        <v>5117075</v>
       </c>
       <c r="L122" t="n">
-        <v>0.439826488494873</v>
+        <v>0.8312720060348511</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -8259,10 +8259,10 @@
         <v>0</v>
       </c>
       <c r="O122" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="P122" s="2" t="n">
-        <v>45264.04166666666</v>
+        <v>45271.04166666666</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61988955412</t>
+          <t>/v1/utilizations/62146142874</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>61988955412</v>
+        <v>62146142874</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -8308,13 +8308,13 @@
         <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2507234</v>
+        <v>5318298</v>
       </c>
       <c r="K123" t="n">
-        <v>2507234</v>
+        <v>5318298</v>
       </c>
       <c r="L123" t="n">
-        <v>0.4081025123596191</v>
+        <v>0.8639507293701172</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -8323,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="O123" s="2" t="n">
-        <v>45264.04166666666</v>
+        <v>45271.04166666666</v>
       </c>
       <c r="P123" s="2" t="n">
-        <v>45264.08333333334</v>
+        <v>45271.08333333334</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61989689925</t>
+          <t>/v1/utilizations/62147076429</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>61989689925</v>
+        <v>62147076429</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -8372,13 +8372,13 @@
         <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>2376732</v>
+        <v>5492285</v>
       </c>
       <c r="K124" t="n">
-        <v>2376732</v>
+        <v>5492285</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3868562579154968</v>
+        <v>0.8922039866447449</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -8387,10 +8387,10 @@
         <v>0</v>
       </c>
       <c r="O124" s="2" t="n">
-        <v>45264.08333333334</v>
+        <v>45271.08333333334</v>
       </c>
       <c r="P124" s="2" t="n">
-        <v>45264.125</v>
+        <v>45271.125</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61990428264</t>
+          <t>/v1/utilizations/62148013856</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>61990428264</v>
+        <v>62148013856</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -8436,13 +8436,13 @@
         <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>2324892</v>
+        <v>5512849</v>
       </c>
       <c r="K125" t="n">
-        <v>2324892</v>
+        <v>5512849</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3784137368202209</v>
+        <v>0.8955342769622803</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -8451,10 +8451,10 @@
         <v>0</v>
       </c>
       <c r="O125" s="2" t="n">
-        <v>45264.125</v>
+        <v>45271.125</v>
       </c>
       <c r="P125" s="2" t="n">
-        <v>45264.16666666666</v>
+        <v>45271.16666666666</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61991170203</t>
+          <t>/v1/utilizations/62148954863</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>61991170203</v>
+        <v>62148954863</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2448360</v>
+        <v>5475192</v>
       </c>
       <c r="K126" t="n">
-        <v>2448360</v>
+        <v>5475192</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3985055088996887</v>
+        <v>0.8894062638282776</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="O126" s="2" t="n">
-        <v>45264.16666666666</v>
+        <v>45271.16666666666</v>
       </c>
       <c r="P126" s="2" t="n">
-        <v>45264.20833333334</v>
+        <v>45271.20833333334</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61991915742</t>
+          <t>/v1/utilizations/62149899450</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>61991915742</v>
+        <v>62149899450</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -8564,13 +8564,13 @@
         <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>2613550</v>
+        <v>5576070</v>
       </c>
       <c r="K127" t="n">
-        <v>2613550</v>
+        <v>5576070</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4253875017166138</v>
+        <v>0.9057825207710266</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -8579,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="O127" s="2" t="n">
-        <v>45264.20833333334</v>
+        <v>45271.20833333334</v>
       </c>
       <c r="P127" s="2" t="n">
-        <v>45264.25</v>
+        <v>45271.25</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61992664881</t>
+          <t>/v1/utilizations/62150847617</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>61992664881</v>
+        <v>62150847617</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -8628,13 +8628,13 @@
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2573532</v>
+        <v>5607814</v>
       </c>
       <c r="K128" t="n">
-        <v>2573532</v>
+        <v>5607814</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4188689887523651</v>
+        <v>0.9109282493591309</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="O128" s="2" t="n">
-        <v>45264.25</v>
+        <v>45271.25</v>
       </c>
       <c r="P128" s="2" t="n">
-        <v>45264.29166666666</v>
+        <v>45271.29166666666</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61994788078</t>
+          <t>/v1/utilizations/62153123871</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>61994788078</v>
+        <v>62153123871</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2773223</v>
+        <v>5541711</v>
       </c>
       <c r="K129" t="n">
-        <v>2773223</v>
+        <v>5541711</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4513655006885529</v>
+        <v>0.9001805186271667</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="O129" s="2" t="n">
-        <v>45264.29166666666</v>
+        <v>45271.29166666666</v>
       </c>
       <c r="P129" s="2" t="n">
-        <v>45264.33333333334</v>
+        <v>45271.33333333334</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61996551567</t>
+          <t>/v1/utilizations/62155238969</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8733,7 +8733,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>61996551567</v>
+        <v>62155238969</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -8756,13 +8756,13 @@
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2915042</v>
+        <v>5440206</v>
       </c>
       <c r="K130" t="n">
-        <v>2915042</v>
+        <v>5440206</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4744420051574707</v>
+        <v>0.8836814761161804</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="O130" s="2" t="n">
-        <v>45264.33333333334</v>
+        <v>45271.33333333334</v>
       </c>
       <c r="P130" s="2" t="n">
-        <v>45264.375</v>
+        <v>45271.375</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61997175642</t>
+          <t>/v1/utilizations/62155996476</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>61997175642</v>
+        <v>62155996476</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -8820,13 +8820,13 @@
         <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2829415</v>
+        <v>5280342</v>
       </c>
       <c r="K131" t="n">
-        <v>2829415</v>
+        <v>5280342</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4605005085468292</v>
+        <v>0.8577039837837219</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -8835,10 +8835,10 @@
         <v>0</v>
       </c>
       <c r="O131" s="2" t="n">
-        <v>45264.375</v>
+        <v>45271.375</v>
       </c>
       <c r="P131" s="2" t="n">
-        <v>45264.41666666666</v>
+        <v>45271.41666666666</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61997871069</t>
+          <t>/v1/utilizations/62156757193</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>61997871069</v>
+        <v>62156757193</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -8884,13 +8884,13 @@
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>2766569</v>
+        <v>5238945</v>
       </c>
       <c r="K132" t="n">
-        <v>2766569</v>
+        <v>5238945</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4502667486667633</v>
+        <v>0.8509697318077087</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>0</v>
       </c>
       <c r="O132" s="2" t="n">
-        <v>45264.41666666666</v>
+        <v>45271.41666666666</v>
       </c>
       <c r="P132" s="2" t="n">
-        <v>45264.45833333334</v>
+        <v>45271.45833333334</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61998638208</t>
+          <t>/v1/utilizations/62157622190</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>61998638208</v>
+        <v>62157622190</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -8948,13 +8948,13 @@
         <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2632541</v>
+        <v>5297017</v>
       </c>
       <c r="K133" t="n">
-        <v>2632541</v>
+        <v>5297017</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4284479916095734</v>
+        <v>0.8603922724723816</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -8963,10 +8963,10 @@
         <v>0</v>
       </c>
       <c r="O133" s="2" t="n">
-        <v>45264.45833333334</v>
+        <v>45271.45833333334</v>
       </c>
       <c r="P133" s="2" t="n">
-        <v>45264.5</v>
+        <v>45271.5</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>/v1/utilizations/61999408947</t>
+          <t>/v1/utilizations/62158490582</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>61999408947</v>
+        <v>62158490582</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2797600</v>
+        <v>5338032</v>
       </c>
       <c r="K134" t="n">
-        <v>2797600</v>
+        <v>5338032</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4553062617778778</v>
+        <v>0.8670439720153809</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -9027,10 +9027,10 @@
         <v>0</v>
       </c>
       <c r="O134" s="2" t="n">
-        <v>45264.5</v>
+        <v>45271.5</v>
       </c>
       <c r="P134" s="2" t="n">
-        <v>45264.54166666666</v>
+        <v>45271.54166666666</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62000183286</t>
+          <t>/v1/utilizations/62159463809</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9053,7 +9053,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>62000183286</v>
+        <v>62159463809</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -9076,13 +9076,13 @@
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2863073</v>
+        <v>5039547</v>
       </c>
       <c r="K135" t="n">
-        <v>2863073</v>
+        <v>5039547</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4659567475318909</v>
+        <v>0.8185522556304932</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="O135" s="2" t="n">
-        <v>45264.54166666666</v>
+        <v>45271.54166666666</v>
       </c>
       <c r="P135" s="2" t="n">
-        <v>45264.58333333334</v>
+        <v>45271.58333333334</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62000961225</t>
+          <t>/v1/utilizations/62160338991</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>62000961225</v>
+        <v>62160338991</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -9140,13 +9140,13 @@
         <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>2802768</v>
+        <v>4229549</v>
       </c>
       <c r="K136" t="n">
-        <v>2802768</v>
+        <v>4229549</v>
       </c>
       <c r="L136" t="n">
-        <v>0.4561367630958557</v>
+        <v>0.6869800090789795</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -9155,10 +9155,10 @@
         <v>0</v>
       </c>
       <c r="O136" s="2" t="n">
-        <v>45264.58333333334</v>
+        <v>45271.58333333334</v>
       </c>
       <c r="P136" s="2" t="n">
-        <v>45264.625</v>
+        <v>45271.625</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62001742764</t>
+          <t>/v1/utilizations/62161319378</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9181,7 +9181,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>62001742764</v>
+        <v>62161319378</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -9204,13 +9204,13 @@
         <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>2826965</v>
+        <v>3325419</v>
       </c>
       <c r="K137" t="n">
-        <v>2826965</v>
+        <v>3325419</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4600692391395569</v>
+        <v>0.5401212573051453</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
@@ -9219,10 +9219,10 @@
         <v>0</v>
       </c>
       <c r="O137" s="2" t="n">
-        <v>45264.625</v>
+        <v>45271.625</v>
       </c>
       <c r="P137" s="2" t="n">
-        <v>45264.66666666666</v>
+        <v>45271.66666666666</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62002527903</t>
+          <t>/v1/utilizations/62162303345</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9245,7 +9245,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>62002527903</v>
+        <v>62162303345</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -9268,13 +9268,13 @@
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2746308</v>
+        <v>2695496</v>
       </c>
       <c r="K138" t="n">
-        <v>2746308</v>
+        <v>2695496</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4469380080699921</v>
+        <v>0.4378030002117157</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
@@ -9283,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="O138" s="2" t="n">
-        <v>45264.66666666666</v>
+        <v>45271.66666666666</v>
       </c>
       <c r="P138" s="2" t="n">
-        <v>45264.70833333334</v>
+        <v>45271.70833333334</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62003177898</t>
+          <t>/v1/utilizations/62163086532</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>62003177898</v>
+        <v>62163086532</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -9332,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2719523</v>
+        <v>2280296</v>
       </c>
       <c r="K139" t="n">
-        <v>2719523</v>
+        <v>2280296</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4425734877586365</v>
+        <v>0.3703612387180328</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -9347,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="O139" s="2" t="n">
-        <v>45264.70833333334</v>
+        <v>45271.70833333334</v>
       </c>
       <c r="P139" s="2" t="n">
-        <v>45264.75</v>
+        <v>45271.75</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62003831133</t>
+          <t>/v1/utilizations/62163872929</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>62003831133</v>
+        <v>62163872929</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -9396,13 +9396,13 @@
         <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2674694</v>
+        <v>2067882</v>
       </c>
       <c r="K140" t="n">
-        <v>2674694</v>
+        <v>2067882</v>
       </c>
       <c r="L140" t="n">
-        <v>0.435272753238678</v>
+        <v>0.3358577489852905</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
@@ -9411,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="O140" s="2" t="n">
-        <v>45264.75</v>
+        <v>45271.75</v>
       </c>
       <c r="P140" s="2" t="n">
-        <v>45264.79166666666</v>
+        <v>45271.79166666666</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62004487608</t>
+          <t>/v1/utilizations/62164662536</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9437,7 +9437,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>62004487608</v>
+        <v>62164662536</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -9460,13 +9460,13 @@
         <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>2820753</v>
+        <v>1633446</v>
       </c>
       <c r="K141" t="n">
-        <v>2820753</v>
+        <v>1633446</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4590367376804352</v>
+        <v>0.265294998884201</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="O141" s="2" t="n">
-        <v>45264.79166666666</v>
+        <v>45271.79166666666</v>
       </c>
       <c r="P141" s="2" t="n">
-        <v>45264.83333333334</v>
+        <v>45271.83333333334</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62005147323</t>
+          <t>/v1/utilizations/62165558088</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>62005147323</v>
+        <v>62165558088</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -9524,13 +9524,13 @@
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>2901646</v>
+        <v>1115997</v>
       </c>
       <c r="K142" t="n">
-        <v>2901646</v>
+        <v>1115997</v>
       </c>
       <c r="L142" t="n">
-        <v>0.4721955060958862</v>
+        <v>0.1812520027160645</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -9539,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="O142" s="2" t="n">
-        <v>45264.83333333334</v>
+        <v>45271.83333333334</v>
       </c>
       <c r="P142" s="2" t="n">
-        <v>45264.875</v>
+        <v>45271.875</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62005950462</t>
+          <t>/v1/utilizations/62166457035</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>62005950462</v>
+        <v>62166457035</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -9588,13 +9588,13 @@
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2749878</v>
+        <v>763852</v>
       </c>
       <c r="K143" t="n">
-        <v>2749878</v>
+        <v>763852</v>
       </c>
       <c r="L143" t="n">
-        <v>0.447492241859436</v>
+        <v>0.1240575015544891</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -9603,10 +9603,10 @@
         <v>0</v>
       </c>
       <c r="O143" s="2" t="n">
-        <v>45264.875</v>
+        <v>45271.875</v>
       </c>
       <c r="P143" s="2" t="n">
-        <v>45264.91666666666</v>
+        <v>45271.91666666666</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62006757201</t>
+          <t>/v1/utilizations/62167359377</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>62006757201</v>
+        <v>62167359377</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2813352</v>
+        <v>701459</v>
       </c>
       <c r="K144" t="n">
-        <v>2813352</v>
+        <v>701459</v>
       </c>
       <c r="L144" t="n">
-        <v>0.4578160047531128</v>
+        <v>0.1139227524399757</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -9667,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="O144" s="2" t="n">
-        <v>45264.91666666666</v>
+        <v>45271.91666666666</v>
       </c>
       <c r="P144" s="2" t="n">
-        <v>45264.95833333334</v>
+        <v>45271.95833333334</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>/v1/utilizations/62007567540</t>
+          <t>/v1/utilizations/62168368404</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>62007567540</v>
+        <v>62168368404</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>2935691</v>
+        <v>599514</v>
       </c>
       <c r="K145" t="n">
-        <v>2935691</v>
+        <v>599514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4777187407016754</v>
+        <v>0.09736507385969162</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O145" s="2" t="n">
-        <v>45264.95833333334</v>
+        <v>45271.95833333334</v>
       </c>
       <c r="P145" s="2" t="n">
-        <v>45265</v>
+        <v>45272</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
